--- a/Documentación SIWA/SIWA BOM Excel Lista de componentes.xlsx
+++ b/Documentación SIWA/SIWA BOM Excel Lista de componentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA040550-BBC5-4011-96BE-DCEDE1DF8C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B2F72D-561C-4911-929E-A5A0BB7D34EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{E1118C65-F56A-4A57-881E-79A7A611BB09}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{9E122235-7502-418F-A27E-1860EC358426}"/>
   </bookViews>
   <sheets>
     <sheet name="SIWA BOM Excel Lista de compone" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
   <si>
     <t>Line #</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Cap Ceramic 10nF 100V C0G 5% Pad SMD 0603 +125°C Automotive T/R</t>
   </si>
   <si>
-    <t>Cbp1, Cbp2, Cbp3, Cd1, Cd2, Cd3, Cd4, Cd5, Cd6, Cd7, Cin1, Cin2, Cin3, Cout1, Cout2, Cout3</t>
+    <t>Cbp1, Cbp2, Cbp3</t>
   </si>
   <si>
     <t>CMP-08246-000560-1</t>
@@ -164,6 +164,36 @@
     <t>68AC4495</t>
   </si>
   <si>
+    <t>KGM15BR71H104JT</t>
+  </si>
+  <si>
+    <t>KGM15BR71H104JT Cap Cer 0.1UF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>Cd1, Cd2, Cd3, Cd4, Cd5, Cd6, Cd7</t>
+  </si>
+  <si>
+    <t>CMP-07738-136560482-1</t>
+  </si>
+  <si>
+    <t>KYOCERA AVX</t>
+  </si>
+  <si>
+    <t>581-KGM15BR71H104JT</t>
+  </si>
+  <si>
+    <t>TACL105K006XTA</t>
+  </si>
+  <si>
+    <t>Cin1, Cin2, Cin3, Cout1, Cout2, Cout3</t>
+  </si>
+  <si>
+    <t>CMP-2006-00183-1</t>
+  </si>
+  <si>
+    <t>Arrow Electronics</t>
+  </si>
+  <si>
     <t>QBLP595-IB</t>
   </si>
   <si>
@@ -287,9 +317,6 @@
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>Arrow Electronics</t>
-  </si>
-  <si>
     <t>MAX8510EXK18+T</t>
   </si>
   <si>
@@ -332,16 +359,19 @@
     <t>Reset</t>
   </si>
   <si>
-    <t>ERJ-3EKF2673V</t>
+    <t>ERJ-3EKF20R0V</t>
   </si>
   <si>
     <t>RL0, RL1, RL2, RL3, RL4, RL5, RL6, RL7</t>
   </si>
   <si>
-    <t>CMP-2000-00386-1</t>
+    <t>CMP-2000-00325-1</t>
   </si>
   <si>
     <t>Panasonic</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF20R0V</t>
   </si>
   <si>
     <t>PPTC081LFBN-RC</t>
@@ -743,15 +773,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F243D561-C577-4561-8B10-F07A9B593662}">
-  <dimension ref="A1:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6914CEC6-3231-4B45-9B82-AD9BE1099CC4}">
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="4" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
@@ -939,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>36</v>
@@ -960,7 +991,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="O5" s="1">
-        <v>1.25</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -986,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>44</v>
@@ -995,19 +1026,19 @@
         <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="N6" s="1">
-        <v>0.17953</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="O6" s="1">
-        <v>1.8</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1015,46 +1046,46 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N7" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="O7" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1062,46 +1093,46 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1">
-        <v>0.16997999999999999</v>
+        <v>0.17953</v>
       </c>
       <c r="O8" s="1">
-        <v>0.16997999999999999</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1109,16 +1140,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>35</v>
@@ -1130,32 +1161,42 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="L9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -1167,25 +1208,25 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N10" s="1">
-        <v>1.0900000000000001</v>
+        <v>0.16997999999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>1.0900000000000001</v>
+        <v>0.16997999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1193,16 +1234,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>35</v>
@@ -1211,29 +1252,21 @@
         <v>20</v>
       </c>
       <c r="H11" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="1">
-        <v>3.97</v>
-      </c>
-      <c r="O11" s="1">
-        <v>19.850000000000001</v>
-      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1242,14 +1275,12 @@
       <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -1261,25 +1292,25 @@
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>76</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N12" s="1">
-        <v>9.8699999999999996E-2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>9.8699999999999996E-2</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1287,31 +1318,31 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>37</v>
@@ -1320,13 +1351,13 @@
         <v>38</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N13" s="1">
-        <v>0.22500000000000001</v>
+        <v>3.97</v>
       </c>
       <c r="O13" s="1">
-        <v>0.22500000000000001</v>
+        <v>19.850000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1334,16 +1365,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
@@ -1355,63 +1386,89 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="1">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>9.8699999999999996E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="I15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.22500000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -1420,42 +1477,34 @@
         <v>20</v>
       </c>
       <c r="H16" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
@@ -1463,7 +1512,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1473,6 +1522,82 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentación SIWA/SIWA BOM Excel Lista de componentes.xlsx
+++ b/Documentación SIWA/SIWA BOM Excel Lista de componentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\Altium\Proyecto integrador\SIWA PCB\Project Outputs for SIWA PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B2F72D-561C-4911-929E-A5A0BB7D34EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58EEEF87-BBA8-4F04-9A9A-6355133C6285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{9E122235-7502-418F-A27E-1860EC358426}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{BC4F0531-A7D7-48AB-B5D5-E0CC4A465226}"/>
   </bookViews>
   <sheets>
     <sheet name="SIWA BOM Excel Lista de compone" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>61200821621</t>
   </si>
   <si>
-    <t>Alimentacion, HeaderLEDs, LCD</t>
+    <t>Alimentacion, LCD</t>
   </si>
   <si>
     <t>CMP-1502-00006-2</t>
@@ -773,7 +773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6914CEC6-3231-4B45-9B82-AD9BE1099CC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060081C7-01CE-484D-84A7-F58BA482AB19}">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
@@ -886,7 +886,7 @@
         <v>0.97</v>
       </c>
       <c r="O2" s="1">
-        <v>2.91</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>56</v>
       </c>
       <c r="N8" s="1">
-        <v>0.17953</v>
+        <v>0.17979000000000001</v>
       </c>
       <c r="O8" s="1">
         <v>1.8</v>
@@ -1401,10 +1401,10 @@
         <v>86</v>
       </c>
       <c r="N14" s="1">
-        <v>9.8699999999999996E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="O14" s="1">
-        <v>9.8699999999999996E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
